--- a/Database_backup/Invoice_details-2020-08-16_livelihood.xlsx
+++ b/Database_backup/Invoice_details-2020-08-16_livelihood.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Database_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Database_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1181,6 +1181,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1525,21 +1526,21 @@
   <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="52.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>186</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>37</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>41</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>42</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>187</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>59</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>60</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>61</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>34</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>44</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>45</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>46</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>47</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>48</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>49</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>50</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>51</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>52</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>53</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>54</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>55</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>56</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>57</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>58</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>188</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>189</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>130</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>131</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>132</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>133</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>134</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>135</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>136</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>137</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>138</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>139</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>140</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>141</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>145</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>148</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>142</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>143</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>144</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>146</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>149</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>150</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>151</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>152</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>190</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>153</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>154</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>155</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>156</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>157</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>158</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>159</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>160</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>161</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>191</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>192</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>162</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>163</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>164</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>165</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>166</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>167</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>168</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>169</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>170</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>171</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>175</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>176</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>177</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>172</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>179</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>193</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>173</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>174</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>178</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>183</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>184</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>185</v>
       </c>
